--- a/data/pca/factorExposure/factorExposure_2009-01-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-09.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01793311738419188</v>
+        <v>-0.01701547292382704</v>
       </c>
       <c r="C2">
-        <v>0.009028076016991871</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01114905466626829</v>
+      </c>
+      <c r="D2">
+        <v>0.01448729025504236</v>
+      </c>
+      <c r="E2">
+        <v>0.01165889603158205</v>
+      </c>
+      <c r="F2">
+        <v>-0.008129029111464093</v>
+      </c>
+      <c r="G2">
+        <v>-0.01808079193695352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08076989854685057</v>
+        <v>-0.08339719829976899</v>
       </c>
       <c r="C4">
-        <v>0.08363052137909924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08700833738309408</v>
+      </c>
+      <c r="D4">
+        <v>-0.06680375381709643</v>
+      </c>
+      <c r="E4">
+        <v>0.01871937293890514</v>
+      </c>
+      <c r="F4">
+        <v>-0.03137129884589018</v>
+      </c>
+      <c r="G4">
+        <v>-0.03151902785017129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003861119701207276</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.00128378340829655</v>
+      </c>
+      <c r="D5">
+        <v>-0.001609918608197538</v>
+      </c>
+      <c r="E5">
+        <v>-0.004971980758750315</v>
+      </c>
+      <c r="F5">
+        <v>-0.000733354117756554</v>
+      </c>
+      <c r="G5">
+        <v>0.004698092489917136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1672202549201532</v>
+        <v>-0.1687775668411691</v>
       </c>
       <c r="C6">
-        <v>-0.01969031858282269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.009372931706028775</v>
+      </c>
+      <c r="D6">
+        <v>-0.05864420386010032</v>
+      </c>
+      <c r="E6">
+        <v>-0.04716054483657527</v>
+      </c>
+      <c r="F6">
+        <v>0.03141236873058956</v>
+      </c>
+      <c r="G6">
+        <v>0.007665365165555383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05444968443225349</v>
+        <v>-0.05628118436999086</v>
       </c>
       <c r="C7">
-        <v>0.05813674377711694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06342136508098425</v>
+      </c>
+      <c r="D7">
+        <v>-0.06299313474287793</v>
+      </c>
+      <c r="E7">
+        <v>0.0768761518312833</v>
+      </c>
+      <c r="F7">
+        <v>-0.01376205946736509</v>
+      </c>
+      <c r="G7">
+        <v>-0.07001011270739237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05354387548801195</v>
+        <v>-0.05102929343059349</v>
       </c>
       <c r="C8">
-        <v>0.05569559077687804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05479830838218076</v>
+      </c>
+      <c r="D8">
+        <v>0.01630343449757753</v>
+      </c>
+      <c r="E8">
+        <v>0.03693149970478862</v>
+      </c>
+      <c r="F8">
+        <v>-0.01972944775417324</v>
+      </c>
+      <c r="G8">
+        <v>0.001208913793627758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05818647068213095</v>
+        <v>-0.06242445614932658</v>
       </c>
       <c r="C9">
-        <v>0.09078646727023003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09222974713896499</v>
+      </c>
+      <c r="D9">
+        <v>-0.09106231464171187</v>
+      </c>
+      <c r="E9">
+        <v>0.04682964697165899</v>
+      </c>
+      <c r="F9">
+        <v>-0.03240494054416692</v>
+      </c>
+      <c r="G9">
+        <v>-0.006791590228376819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1136658986672131</v>
+        <v>-0.1020635382155984</v>
       </c>
       <c r="C10">
-        <v>-0.145620069067176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1362997737140358</v>
+      </c>
+      <c r="D10">
+        <v>0.1011617412745418</v>
+      </c>
+      <c r="E10">
+        <v>0.04135897821637414</v>
+      </c>
+      <c r="F10">
+        <v>-0.02004587047165247</v>
+      </c>
+      <c r="G10">
+        <v>0.02132697627187723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07862952415615868</v>
+        <v>-0.07602482062172601</v>
       </c>
       <c r="C11">
-        <v>0.1304529843902868</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1298935062045972</v>
+      </c>
+      <c r="D11">
+        <v>-0.04892842685956821</v>
+      </c>
+      <c r="E11">
+        <v>0.06031721580366906</v>
+      </c>
+      <c r="F11">
+        <v>-0.04800928457684141</v>
+      </c>
+      <c r="G11">
+        <v>0.003406800751783345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07956065784908245</v>
+        <v>-0.07632168666325792</v>
       </c>
       <c r="C12">
-        <v>0.1571359244042655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1541890647861449</v>
+      </c>
+      <c r="D12">
+        <v>-0.05671513084581013</v>
+      </c>
+      <c r="E12">
+        <v>0.06697960331874461</v>
+      </c>
+      <c r="F12">
+        <v>-0.04310076911964929</v>
+      </c>
+      <c r="G12">
+        <v>-0.01587108745667808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04098864714912063</v>
+        <v>-0.04246695597553378</v>
       </c>
       <c r="C13">
-        <v>0.06839130839572496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07281533338475969</v>
+      </c>
+      <c r="D13">
+        <v>-0.03022574419779878</v>
+      </c>
+      <c r="E13">
+        <v>0.07293849818815822</v>
+      </c>
+      <c r="F13">
+        <v>-0.03298115022007753</v>
+      </c>
+      <c r="G13">
+        <v>-0.02669703497768557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02013949570571819</v>
+        <v>-0.02281839005685866</v>
       </c>
       <c r="C14">
-        <v>0.04779984640569674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0489064991885581</v>
+      </c>
+      <c r="D14">
+        <v>-0.0432337461559267</v>
+      </c>
+      <c r="E14">
+        <v>0.06136576363025729</v>
+      </c>
+      <c r="F14">
+        <v>-0.04311679022223638</v>
+      </c>
+      <c r="G14">
+        <v>0.01052676478527194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03264508584430954</v>
+        <v>-0.03362418517281632</v>
       </c>
       <c r="C15">
-        <v>0.05966943660278579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.05804116694558446</v>
+      </c>
+      <c r="D15">
+        <v>-0.04704456985042475</v>
+      </c>
+      <c r="E15">
+        <v>0.03364465166744408</v>
+      </c>
+      <c r="F15">
+        <v>0.001499386200735115</v>
+      </c>
+      <c r="G15">
+        <v>-0.002605053293693589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05710580215168638</v>
+        <v>-0.0560271341007486</v>
       </c>
       <c r="C16">
-        <v>0.1531527592064094</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1517927994476397</v>
+      </c>
+      <c r="D16">
+        <v>-0.05458731557138968</v>
+      </c>
+      <c r="E16">
+        <v>0.04325317172880793</v>
+      </c>
+      <c r="F16">
+        <v>-0.05972901771734498</v>
+      </c>
+      <c r="G16">
+        <v>0.0075976501796176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.006405480138356997</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.004253305911092245</v>
+      </c>
+      <c r="D17">
+        <v>0.0006394470257637182</v>
+      </c>
+      <c r="E17">
+        <v>-0.006714025405372296</v>
+      </c>
+      <c r="F17">
+        <v>0.007364332042878253</v>
+      </c>
+      <c r="G17">
+        <v>0.01167304514038341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04254042311580113</v>
+        <v>-0.05296067633679267</v>
       </c>
       <c r="C18">
-        <v>0.05213383354110085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04692196913077313</v>
+      </c>
+      <c r="D18">
+        <v>0.004504201673265867</v>
+      </c>
+      <c r="E18">
+        <v>-0.04344434087607654</v>
+      </c>
+      <c r="F18">
+        <v>0.03697188396964376</v>
+      </c>
+      <c r="G18">
+        <v>0.01104705789369751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05633806966791027</v>
+        <v>-0.05583388859210599</v>
       </c>
       <c r="C20">
-        <v>0.1000019371120748</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.09845884083438625</v>
+      </c>
+      <c r="D20">
+        <v>-0.07902407438607355</v>
+      </c>
+      <c r="E20">
+        <v>0.05489040337876144</v>
+      </c>
+      <c r="F20">
+        <v>-0.03873016874479277</v>
+      </c>
+      <c r="G20">
+        <v>0.0008699984460338232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04389114915621143</v>
+        <v>-0.04515291895843832</v>
       </c>
       <c r="C21">
-        <v>0.0631562991315907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06065494902390752</v>
+      </c>
+      <c r="D21">
+        <v>-0.01097730124444767</v>
+      </c>
+      <c r="E21">
+        <v>0.06354872152027147</v>
+      </c>
+      <c r="F21">
+        <v>-0.03145235947866871</v>
+      </c>
+      <c r="G21">
+        <v>-0.02706715678260478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04430653501019092</v>
+        <v>-0.04420822449983622</v>
       </c>
       <c r="C22">
-        <v>0.03262202214347221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03713418203801377</v>
+      </c>
+      <c r="D22">
+        <v>0.07234113148716878</v>
+      </c>
+      <c r="E22">
+        <v>-0.1152744013993396</v>
+      </c>
+      <c r="F22">
+        <v>-0.09536141412618597</v>
+      </c>
+      <c r="G22">
+        <v>0.08685161381669906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04431603242156058</v>
+        <v>-0.04421653011457265</v>
       </c>
       <c r="C23">
-        <v>0.0326155981446229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0371286035060012</v>
+      </c>
+      <c r="D23">
+        <v>0.07237713065779637</v>
+      </c>
+      <c r="E23">
+        <v>-0.1152853374525435</v>
+      </c>
+      <c r="F23">
+        <v>-0.09537976190136524</v>
+      </c>
+      <c r="G23">
+        <v>0.08691399383169619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06570666269302364</v>
+        <v>-0.06403099483870241</v>
       </c>
       <c r="C24">
-        <v>0.1396101550053813</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1367189094214002</v>
+      </c>
+      <c r="D24">
+        <v>-0.05688890142834046</v>
+      </c>
+      <c r="E24">
+        <v>0.05474187799813827</v>
+      </c>
+      <c r="F24">
+        <v>-0.04551784904383118</v>
+      </c>
+      <c r="G24">
+        <v>-0.007479180170873657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07042000968506072</v>
+        <v>-0.06833523833166137</v>
       </c>
       <c r="C25">
-        <v>0.1221627173798082</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1206351764094779</v>
+      </c>
+      <c r="D25">
+        <v>-0.03955388869673013</v>
+      </c>
+      <c r="E25">
+        <v>0.09076356958196043</v>
+      </c>
+      <c r="F25">
+        <v>-0.03079234433593388</v>
+      </c>
+      <c r="G25">
+        <v>-0.02511012720571249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05611534026510964</v>
+        <v>-0.05990958186301413</v>
       </c>
       <c r="C26">
-        <v>0.06976898793844009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.0722324034524445</v>
+      </c>
+      <c r="D26">
+        <v>-0.02073983467354341</v>
+      </c>
+      <c r="E26">
+        <v>0.06781376785276025</v>
+      </c>
+      <c r="F26">
+        <v>-0.03753554043298063</v>
+      </c>
+      <c r="G26">
+        <v>-0.00729603072766692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1723618842669114</v>
+        <v>-0.1761183170962246</v>
       </c>
       <c r="C28">
-        <v>-0.2308471749528414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2304596752793332</v>
+      </c>
+      <c r="D28">
+        <v>0.01240406713776051</v>
+      </c>
+      <c r="E28">
+        <v>0.1487593181516764</v>
+      </c>
+      <c r="F28">
+        <v>-0.04231611294516891</v>
+      </c>
+      <c r="G28">
+        <v>-0.009134563000683021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02467452855314471</v>
+        <v>-0.02668861337096993</v>
       </c>
       <c r="C29">
-        <v>0.05512443454014235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05298809694915903</v>
+      </c>
+      <c r="D29">
+        <v>-0.00842896533091513</v>
+      </c>
+      <c r="E29">
+        <v>0.05579235822218881</v>
+      </c>
+      <c r="F29">
+        <v>-0.04323532999330496</v>
+      </c>
+      <c r="G29">
+        <v>0.007207935028099996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03799600952406757</v>
+        <v>-0.03923428725301289</v>
       </c>
       <c r="C30">
-        <v>0.06733267819769025</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.0751147485181511</v>
+      </c>
+      <c r="D30">
+        <v>-0.1311241635165995</v>
+      </c>
+      <c r="E30">
+        <v>0.1002633052302302</v>
+      </c>
+      <c r="F30">
+        <v>0.01249724913604291</v>
+      </c>
+      <c r="G30">
+        <v>-0.02643682453508066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05273058306910459</v>
+        <v>-0.05183535555329457</v>
       </c>
       <c r="C31">
-        <v>0.03612771945384469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03824619381223478</v>
+      </c>
+      <c r="D31">
+        <v>-0.006698896038249934</v>
+      </c>
+      <c r="E31">
+        <v>-0.01091970034998121</v>
+      </c>
+      <c r="F31">
+        <v>-0.04616949360354794</v>
+      </c>
+      <c r="G31">
+        <v>-0.0003248137271195542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04281971745216086</v>
+        <v>-0.04609042712841814</v>
       </c>
       <c r="C32">
-        <v>0.05477944382740452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05305748455414953</v>
+      </c>
+      <c r="D32">
+        <v>-0.01872911649386621</v>
+      </c>
+      <c r="E32">
+        <v>0.001434660084426752</v>
+      </c>
+      <c r="F32">
+        <v>0.002964719557562538</v>
+      </c>
+      <c r="G32">
+        <v>-0.0006800403624456468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0776561487829816</v>
+        <v>-0.08137511847236441</v>
       </c>
       <c r="C33">
-        <v>0.1157895295283847</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1247327961970281</v>
+      </c>
+      <c r="D33">
+        <v>-0.07095944917203285</v>
+      </c>
+      <c r="E33">
+        <v>0.05095601547355036</v>
+      </c>
+      <c r="F33">
+        <v>-0.04696310848462148</v>
+      </c>
+      <c r="G33">
+        <v>0.009492004161288169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05501078568387687</v>
+        <v>-0.05392393887607872</v>
       </c>
       <c r="C34">
-        <v>0.1241791241093381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.124035816772101</v>
+      </c>
+      <c r="D34">
+        <v>-0.07759260773741875</v>
+      </c>
+      <c r="E34">
+        <v>0.08036176686437362</v>
+      </c>
+      <c r="F34">
+        <v>-0.03182668745642673</v>
+      </c>
+      <c r="G34">
+        <v>0.0241942950103623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02584692333683093</v>
+        <v>-0.02880091682747015</v>
       </c>
       <c r="C35">
-        <v>0.01807928140925119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02014673360627775</v>
+      </c>
+      <c r="D35">
+        <v>-0.0144248274889863</v>
+      </c>
+      <c r="E35">
+        <v>0.02304354446842714</v>
+      </c>
+      <c r="F35">
+        <v>-0.01556415722990489</v>
+      </c>
+      <c r="G35">
+        <v>0.02977033039137033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02489314912400279</v>
+        <v>-0.02738531330587808</v>
       </c>
       <c r="C36">
-        <v>0.05364051366093753</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05204652479404975</v>
+      </c>
+      <c r="D36">
+        <v>-0.05849763267987222</v>
+      </c>
+      <c r="E36">
+        <v>0.0202937475054058</v>
+      </c>
+      <c r="F36">
+        <v>-0.002264870860131529</v>
+      </c>
+      <c r="G36">
+        <v>0.09150183370333134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0006123350501046996</v>
+        <v>-0.003735199078187527</v>
       </c>
       <c r="C37">
-        <v>-0.0004112925925803146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.00733967387666133</v>
+      </c>
+      <c r="D37">
+        <v>-0.001647918739218549</v>
+      </c>
+      <c r="E37">
+        <v>0.007986080196870535</v>
+      </c>
+      <c r="F37">
+        <v>-0.00782970773745682</v>
+      </c>
+      <c r="G37">
+        <v>-0.005259224816062854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07944643347788399</v>
+        <v>-0.07475819860724114</v>
       </c>
       <c r="C39">
-        <v>0.1526375434813458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1460525048003876</v>
+      </c>
+      <c r="D39">
+        <v>-0.02425765316462082</v>
+      </c>
+      <c r="E39">
+        <v>0.09085888203500923</v>
+      </c>
+      <c r="F39">
+        <v>-0.09848859699843895</v>
+      </c>
+      <c r="G39">
+        <v>-0.03568575669649025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0476471307989841</v>
+        <v>-0.0503685134072976</v>
       </c>
       <c r="C40">
-        <v>0.07098966152630669</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.07680297386020736</v>
+      </c>
+      <c r="D40">
+        <v>-0.009318321753648811</v>
+      </c>
+      <c r="E40">
+        <v>0.05307775663679428</v>
+      </c>
+      <c r="F40">
+        <v>0.002770814575342213</v>
+      </c>
+      <c r="G40">
+        <v>0.02276574888767877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02811044846336839</v>
+        <v>-0.02827928621770471</v>
       </c>
       <c r="C41">
-        <v>0.02314286055221073</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02412890162918935</v>
+      </c>
+      <c r="D41">
+        <v>0.009840452075102849</v>
+      </c>
+      <c r="E41">
+        <v>-0.006249388134465583</v>
+      </c>
+      <c r="F41">
+        <v>0.01232661421484928</v>
+      </c>
+      <c r="G41">
+        <v>0.008619643838896372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04284666057611902</v>
+        <v>-0.04127076777650802</v>
       </c>
       <c r="C43">
-        <v>0.04020314391369869</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03694668827689585</v>
+      </c>
+      <c r="D43">
+        <v>0.008033084785018159</v>
+      </c>
+      <c r="E43">
+        <v>-0.003434881706425167</v>
+      </c>
+      <c r="F43">
+        <v>-0.04186596759127415</v>
+      </c>
+      <c r="G43">
+        <v>0.02442626141088113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05730150794699568</v>
+        <v>-0.06200893734317876</v>
       </c>
       <c r="C44">
-        <v>0.08940912905394009</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.09069141828970941</v>
+      </c>
+      <c r="D44">
+        <v>-0.2790219572845062</v>
+      </c>
+      <c r="E44">
+        <v>0.1467068960793459</v>
+      </c>
+      <c r="F44">
+        <v>0.002119116887599806</v>
+      </c>
+      <c r="G44">
+        <v>0.1544309002620232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0005873924420017767</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0006553518198307003</v>
+      </c>
+      <c r="D45">
+        <v>0.000162485275207415</v>
+      </c>
+      <c r="E45">
+        <v>-0.002574719017439594</v>
+      </c>
+      <c r="F45">
+        <v>0.0002847006891068259</v>
+      </c>
+      <c r="G45">
+        <v>-0.004147619858184307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02806153354023687</v>
+        <v>-0.02906480931600355</v>
       </c>
       <c r="C46">
-        <v>0.04170021652182761</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.03973589241471656</v>
+      </c>
+      <c r="D46">
+        <v>-0.008251393916205788</v>
+      </c>
+      <c r="E46">
+        <v>0.0304623502481342</v>
+      </c>
+      <c r="F46">
+        <v>-0.07323524511864243</v>
+      </c>
+      <c r="G46">
+        <v>-0.002370341798005429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05446389405038479</v>
+        <v>-0.05307304222383737</v>
       </c>
       <c r="C47">
-        <v>0.03827183570792216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03763100409856891</v>
+      </c>
+      <c r="D47">
+        <v>0.02473929748530523</v>
+      </c>
+      <c r="E47">
+        <v>-0.04590289196597184</v>
+      </c>
+      <c r="F47">
+        <v>-0.04923774534161441</v>
+      </c>
+      <c r="G47">
+        <v>0.0139025496255347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04655676494772587</v>
+        <v>-0.04903655602206381</v>
       </c>
       <c r="C48">
-        <v>0.06974200044471357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.06936312717227129</v>
+      </c>
+      <c r="D48">
+        <v>-0.02567822029827037</v>
+      </c>
+      <c r="E48">
+        <v>0.05942029957901267</v>
+      </c>
+      <c r="F48">
+        <v>-0.0239728148110766</v>
+      </c>
+      <c r="G48">
+        <v>-0.03721002298555397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.191446988400471</v>
+        <v>-0.1966585256428251</v>
       </c>
       <c r="C49">
-        <v>-0.01765159916999368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.0125957244755864</v>
+      </c>
+      <c r="D49">
+        <v>-0.05016563760024676</v>
+      </c>
+      <c r="E49">
+        <v>-0.02646874055427007</v>
+      </c>
+      <c r="F49">
+        <v>0.04362451988317692</v>
+      </c>
+      <c r="G49">
+        <v>-0.04652882055555874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05193260180672728</v>
+        <v>-0.05225973463305882</v>
       </c>
       <c r="C50">
-        <v>0.03468101127910114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03725339298015566</v>
+      </c>
+      <c r="D50">
+        <v>-0.02048683156072578</v>
+      </c>
+      <c r="E50">
+        <v>-0.01139310970039196</v>
+      </c>
+      <c r="F50">
+        <v>-0.03329930933174126</v>
+      </c>
+      <c r="G50">
+        <v>-0.00821119499633571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1414804807240595</v>
+        <v>-0.1366079813391433</v>
       </c>
       <c r="C52">
-        <v>0.03445275687243655</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.03365033702631775</v>
+      </c>
+      <c r="D52">
+        <v>-0.04643810996060416</v>
+      </c>
+      <c r="E52">
+        <v>-0.1007182001848585</v>
+      </c>
+      <c r="F52">
+        <v>-0.01611467458209178</v>
+      </c>
+      <c r="G52">
+        <v>0.007415308650040111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1683782519104802</v>
+        <v>-0.1621099740414517</v>
       </c>
       <c r="C53">
-        <v>-0.01012751578641832</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.00606429244585053</v>
+      </c>
+      <c r="D53">
+        <v>-0.08893262385210356</v>
+      </c>
+      <c r="E53">
+        <v>-0.1613751864767329</v>
+      </c>
+      <c r="F53">
+        <v>-0.02198626642140331</v>
+      </c>
+      <c r="G53">
+        <v>-0.01333347540838093</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0115003253360308</v>
+        <v>-0.01366473137336807</v>
       </c>
       <c r="C54">
-        <v>0.03758650310664381</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.03695976915868363</v>
+      </c>
+      <c r="D54">
+        <v>-0.01431799512569347</v>
+      </c>
+      <c r="E54">
+        <v>0.02950329799013238</v>
+      </c>
+      <c r="F54">
+        <v>-0.03537987556806964</v>
+      </c>
+      <c r="G54">
+        <v>0.0002489259919454198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1212039143088967</v>
+        <v>-0.1188758868998343</v>
       </c>
       <c r="C55">
-        <v>0.01183596075651462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01635814552921184</v>
+      </c>
+      <c r="D55">
+        <v>-0.0619305861264919</v>
+      </c>
+      <c r="E55">
+        <v>-0.09900993130741319</v>
+      </c>
+      <c r="F55">
+        <v>-0.07225412910997694</v>
+      </c>
+      <c r="G55">
+        <v>-0.001462169484759333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.179741484201328</v>
+        <v>-0.1743918721864266</v>
       </c>
       <c r="C56">
-        <v>-0.00664878659387062</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.005449506036231579</v>
+      </c>
+      <c r="D56">
+        <v>-0.03918551543387361</v>
+      </c>
+      <c r="E56">
+        <v>-0.1851755921126111</v>
+      </c>
+      <c r="F56">
+        <v>-0.004883445104214157</v>
+      </c>
+      <c r="G56">
+        <v>-0.0230503149709819</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04270557172231896</v>
+        <v>-0.04191939901281289</v>
       </c>
       <c r="C58">
-        <v>0.09842365002242265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1079329647880814</v>
+      </c>
+      <c r="D58">
+        <v>0.002974969873126938</v>
+      </c>
+      <c r="E58">
+        <v>0.01177122055830684</v>
+      </c>
+      <c r="F58">
+        <v>-0.04621543056869264</v>
+      </c>
+      <c r="G58">
+        <v>-0.007962881500841621</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1856112948990954</v>
+        <v>-0.1919445011245102</v>
       </c>
       <c r="C59">
-        <v>-0.1715413526330751</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1778636600132918</v>
+      </c>
+      <c r="D59">
+        <v>0.08691871973987755</v>
+      </c>
+      <c r="E59">
+        <v>0.05045344023320545</v>
+      </c>
+      <c r="F59">
+        <v>-0.05876305678480919</v>
+      </c>
+      <c r="G59">
+        <v>-0.03852023872722572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2118365428236447</v>
+        <v>-0.2094675130414355</v>
       </c>
       <c r="C60">
-        <v>0.006473816392939664</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.01093043743448238</v>
+      </c>
+      <c r="D60">
+        <v>0.05069259092328841</v>
+      </c>
+      <c r="E60">
+        <v>-0.1791615123160036</v>
+      </c>
+      <c r="F60">
+        <v>0.06140317633662909</v>
+      </c>
+      <c r="G60">
+        <v>-0.1020678382028318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06267714900896676</v>
+        <v>-0.06028550401988927</v>
       </c>
       <c r="C61">
-        <v>0.1268724993815646</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1250696084269397</v>
+      </c>
+      <c r="D61">
+        <v>-0.02511095330224192</v>
+      </c>
+      <c r="E61">
+        <v>0.06395720909002031</v>
+      </c>
+      <c r="F61">
+        <v>-0.053149017388267</v>
+      </c>
+      <c r="G61">
+        <v>-0.02105930155315488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1693269617067458</v>
+        <v>-0.1657688704521367</v>
       </c>
       <c r="C62">
-        <v>-0.005575208277593481</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004736202245049102</v>
+      </c>
+      <c r="D62">
+        <v>-0.03694828495078542</v>
+      </c>
+      <c r="E62">
+        <v>-0.1591492626526734</v>
+      </c>
+      <c r="F62">
+        <v>-0.0121674917171798</v>
+      </c>
+      <c r="G62">
+        <v>-0.008421713398235452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03900012317823626</v>
+        <v>-0.04187728640308486</v>
       </c>
       <c r="C63">
-        <v>0.077262656421378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08048994947211509</v>
+      </c>
+      <c r="D63">
+        <v>-0.02046698548522159</v>
+      </c>
+      <c r="E63">
+        <v>0.03294366081157123</v>
+      </c>
+      <c r="F63">
+        <v>-0.02350016628296363</v>
+      </c>
+      <c r="G63">
+        <v>0.02935470334960913</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1117748335313167</v>
+        <v>-0.1095081029122326</v>
       </c>
       <c r="C64">
-        <v>0.05321841188983431</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.05762578040557422</v>
+      </c>
+      <c r="D64">
+        <v>-0.0281832452087063</v>
+      </c>
+      <c r="E64">
+        <v>-0.03523537478154767</v>
+      </c>
+      <c r="F64">
+        <v>0.02113647535515453</v>
+      </c>
+      <c r="G64">
+        <v>-0.0111670242799126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1580789632522967</v>
+        <v>-0.1607336197530609</v>
       </c>
       <c r="C65">
-        <v>-0.05881830857783212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04766540899623099</v>
+      </c>
+      <c r="D65">
+        <v>-0.06418009945882383</v>
+      </c>
+      <c r="E65">
+        <v>-0.02212018747914572</v>
+      </c>
+      <c r="F65">
+        <v>-0.01640538363293891</v>
+      </c>
+      <c r="G65">
+        <v>-0.0008412782852361255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09668563731935423</v>
+        <v>-0.0919930855306047</v>
       </c>
       <c r="C66">
-        <v>0.1312208766525673</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1304734991505394</v>
+      </c>
+      <c r="D66">
+        <v>-0.02539874359928393</v>
+      </c>
+      <c r="E66">
+        <v>0.08314799109636303</v>
+      </c>
+      <c r="F66">
+        <v>-0.0526189302614266</v>
+      </c>
+      <c r="G66">
+        <v>0.0006156941951858577</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05510763607409656</v>
+        <v>-0.04817052395526539</v>
       </c>
       <c r="C67">
-        <v>0.09466777503267103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.08569929032942607</v>
+      </c>
+      <c r="D67">
+        <v>0.06094965279439277</v>
+      </c>
+      <c r="E67">
+        <v>-0.07543075352962773</v>
+      </c>
+      <c r="F67">
+        <v>-0.03410730676764157</v>
+      </c>
+      <c r="G67">
+        <v>0.04237376304452912</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1419653245454011</v>
+        <v>-0.1446196875529338</v>
       </c>
       <c r="C68">
-        <v>-0.2507614048613027</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2507232329732521</v>
+      </c>
+      <c r="D68">
+        <v>0.02263579039765582</v>
+      </c>
+      <c r="E68">
+        <v>0.158342467258583</v>
+      </c>
+      <c r="F68">
+        <v>-0.01182499737034418</v>
+      </c>
+      <c r="G68">
+        <v>-0.05301575287956568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0400152563425291</v>
+        <v>-0.03878788972502318</v>
       </c>
       <c r="C69">
-        <v>0.01908845810646458</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.0206939042887189</v>
+      </c>
+      <c r="D69">
+        <v>0.004216735692565306</v>
+      </c>
+      <c r="E69">
+        <v>-0.07198447171680152</v>
+      </c>
+      <c r="F69">
+        <v>-0.01047776995623108</v>
+      </c>
+      <c r="G69">
+        <v>0.05204873090671298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07500469752709429</v>
+        <v>-0.07306025114379877</v>
       </c>
       <c r="C70">
-        <v>0.09802090415736713</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09504074307617393</v>
+      </c>
+      <c r="D70">
+        <v>0.5027614269901375</v>
+      </c>
+      <c r="E70">
+        <v>-0.3301986263006992</v>
+      </c>
+      <c r="F70">
+        <v>0.004582846882658588</v>
+      </c>
+      <c r="G70">
+        <v>-0.5049946171325531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1661745513809984</v>
+        <v>-0.169330810018153</v>
       </c>
       <c r="C71">
-        <v>-0.2583612846064772</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2557663558861502</v>
+      </c>
+      <c r="D71">
+        <v>0.023856655963515</v>
+      </c>
+      <c r="E71">
+        <v>0.1671794020776937</v>
+      </c>
+      <c r="F71">
+        <v>-0.009093691211701428</v>
+      </c>
+      <c r="G71">
+        <v>-0.05820127265920696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1450780038561764</v>
+        <v>-0.1496378705430375</v>
       </c>
       <c r="C72">
-        <v>0.009047127257273694</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.00889499629573213</v>
+      </c>
+      <c r="D72">
+        <v>-0.05758338965641514</v>
+      </c>
+      <c r="E72">
+        <v>-0.07240494010663157</v>
+      </c>
+      <c r="F72">
+        <v>-0.04334053349527713</v>
+      </c>
+      <c r="G72">
+        <v>0.05935135263810327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1921333124090361</v>
+        <v>-0.1994456768668943</v>
       </c>
       <c r="C73">
-        <v>0.02696705899093919</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.03317154701386275</v>
+      </c>
+      <c r="D73">
+        <v>-0.06092239095069649</v>
+      </c>
+      <c r="E73">
+        <v>-0.1330232631489056</v>
+      </c>
+      <c r="F73">
+        <v>0.01005586117312396</v>
+      </c>
+      <c r="G73">
+        <v>0.02807509097228572</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08708976856095728</v>
+        <v>-0.08593780244873717</v>
       </c>
       <c r="C74">
-        <v>0.003507526244413084</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01045535362224145</v>
+      </c>
+      <c r="D74">
+        <v>-0.07107530660164682</v>
+      </c>
+      <c r="E74">
+        <v>-0.08343590971232176</v>
+      </c>
+      <c r="F74">
+        <v>0.009952124378996204</v>
+      </c>
+      <c r="G74">
+        <v>0.02038026725397482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1234162037915763</v>
+        <v>-0.115785237774654</v>
       </c>
       <c r="C75">
-        <v>0.02503906515106941</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02673745486917527</v>
+      </c>
+      <c r="D75">
+        <v>-0.03875259374913188</v>
+      </c>
+      <c r="E75">
+        <v>-0.1187863725231275</v>
+      </c>
+      <c r="F75">
+        <v>-0.04897380429805681</v>
+      </c>
+      <c r="G75">
+        <v>0.0273017969191191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07599818830686998</v>
+        <v>-0.08686765467661715</v>
       </c>
       <c r="C77">
-        <v>0.1174571394885107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.121401693908345</v>
+      </c>
+      <c r="D77">
+        <v>-0.07892789828356048</v>
+      </c>
+      <c r="E77">
+        <v>0.07065528918737601</v>
+      </c>
+      <c r="F77">
+        <v>-0.05872384585986026</v>
+      </c>
+      <c r="G77">
+        <v>-0.1450968159205697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08208264167444537</v>
+        <v>-0.08724274165709786</v>
       </c>
       <c r="C78">
-        <v>0.1237421767675227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1242488809100955</v>
+      </c>
+      <c r="D78">
+        <v>-0.07498589892646894</v>
+      </c>
+      <c r="E78">
+        <v>0.04724574479120039</v>
+      </c>
+      <c r="F78">
+        <v>-0.1209230614458724</v>
+      </c>
+      <c r="G78">
+        <v>-0.04860040827973135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.167554844220084</v>
+        <v>-0.1634009256006632</v>
       </c>
       <c r="C79">
-        <v>0.01992531416636639</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.0212228859966071</v>
+      </c>
+      <c r="D79">
+        <v>-0.02411994943973184</v>
+      </c>
+      <c r="E79">
+        <v>-0.09791503060237343</v>
+      </c>
+      <c r="F79">
+        <v>-0.03804479658790099</v>
+      </c>
+      <c r="G79">
+        <v>0.01035785872193957</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07835756098761912</v>
+        <v>-0.07473582755097397</v>
       </c>
       <c r="C80">
-        <v>0.08095975123218807</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.07544928578916098</v>
+      </c>
+      <c r="D80">
+        <v>0.004134571346484148</v>
+      </c>
+      <c r="E80">
+        <v>0.09136284284047948</v>
+      </c>
+      <c r="F80">
+        <v>-0.006568350202624393</v>
+      </c>
+      <c r="G80">
+        <v>0.06788358922677193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1125184194626845</v>
+        <v>-0.1059619835093773</v>
       </c>
       <c r="C81">
-        <v>-0.01519316189254108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01261962813825696</v>
+      </c>
+      <c r="D81">
+        <v>-0.01370892532549819</v>
+      </c>
+      <c r="E81">
+        <v>-0.1296276214357992</v>
+      </c>
+      <c r="F81">
+        <v>-0.04162595783378505</v>
+      </c>
+      <c r="G81">
+        <v>0.06985398996676363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1634065698274182</v>
+        <v>-0.1580959215719787</v>
       </c>
       <c r="C82">
-        <v>-0.01553432980227266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01080221701366239</v>
+      </c>
+      <c r="D82">
+        <v>-0.08699400455720807</v>
+      </c>
+      <c r="E82">
+        <v>-0.1330956113940867</v>
+      </c>
+      <c r="F82">
+        <v>0.03727171757677648</v>
+      </c>
+      <c r="G82">
+        <v>0.02959132660761437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05463718854573503</v>
+        <v>-0.05055652121128371</v>
       </c>
       <c r="C83">
-        <v>0.06779678733444487</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.06278565429579591</v>
+      </c>
+      <c r="D83">
+        <v>0.009539025846987981</v>
+      </c>
+      <c r="E83">
+        <v>-0.0001675973154572086</v>
+      </c>
+      <c r="F83">
+        <v>0.003149735714993234</v>
+      </c>
+      <c r="G83">
+        <v>-0.02226259320627397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04782801393582835</v>
+        <v>-0.04663503828257815</v>
       </c>
       <c r="C84">
-        <v>0.07751749745598675</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07448109335188155</v>
+      </c>
+      <c r="D84">
+        <v>0.01587663838850436</v>
+      </c>
+      <c r="E84">
+        <v>-0.01989009525225718</v>
+      </c>
+      <c r="F84">
+        <v>-0.01451091766540698</v>
+      </c>
+      <c r="G84">
+        <v>-0.02007987254470996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1387936870656157</v>
+        <v>-0.1343743108114679</v>
       </c>
       <c r="C85">
-        <v>0.006581268145070255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.008727237567204314</v>
+      </c>
+      <c r="D85">
+        <v>-0.08428342388145231</v>
+      </c>
+      <c r="E85">
+        <v>-0.09103077698398929</v>
+      </c>
+      <c r="F85">
+        <v>-0.03595584322353165</v>
+      </c>
+      <c r="G85">
+        <v>0.02316813350978469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08255557977835548</v>
+        <v>-0.08269388322113028</v>
       </c>
       <c r="C86">
-        <v>0.156982316344998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1572364965287212</v>
+      </c>
+      <c r="D86">
+        <v>0.5929609712184828</v>
+      </c>
+      <c r="E86">
+        <v>0.2104289476781049</v>
+      </c>
+      <c r="F86">
+        <v>-0.4935282060200559</v>
+      </c>
+      <c r="G86">
+        <v>0.3902424103536026</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09021791725340307</v>
+        <v>-0.0865374290523559</v>
       </c>
       <c r="C87">
-        <v>0.1013942719368554</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1002639392610899</v>
+      </c>
+      <c r="D87">
+        <v>-0.08791612954898519</v>
+      </c>
+      <c r="E87">
+        <v>0.1812806832943026</v>
+      </c>
+      <c r="F87">
+        <v>0.1031391201107963</v>
+      </c>
+      <c r="G87">
+        <v>-0.06885025108148779</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06011416738697225</v>
+        <v>-0.05977761448999929</v>
       </c>
       <c r="C88">
-        <v>0.06146809342456288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06174649353905629</v>
+      </c>
+      <c r="D88">
+        <v>-0.01068311555321318</v>
+      </c>
+      <c r="E88">
+        <v>-0.03206804427474198</v>
+      </c>
+      <c r="F88">
+        <v>-0.00312466660869314</v>
+      </c>
+      <c r="G88">
+        <v>-0.00258822107698626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1516856423998254</v>
+        <v>-0.1514681328316196</v>
       </c>
       <c r="C89">
-        <v>-0.1997738820973679</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2073723305048261</v>
+      </c>
+      <c r="D89">
+        <v>0.01066856616733474</v>
+      </c>
+      <c r="E89">
+        <v>0.1304520345602479</v>
+      </c>
+      <c r="F89">
+        <v>0.01101611086294962</v>
+      </c>
+      <c r="G89">
+        <v>-0.02546878868131084</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1833830285538741</v>
+        <v>-0.1872766827075087</v>
       </c>
       <c r="C90">
-        <v>-0.2322868194081916</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2351473295127823</v>
+      </c>
+      <c r="D90">
+        <v>0.03370648977663164</v>
+      </c>
+      <c r="E90">
+        <v>0.2106411151631719</v>
+      </c>
+      <c r="F90">
+        <v>0.01551633578424452</v>
+      </c>
+      <c r="G90">
+        <v>-0.05940149852328364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.126562243916098</v>
+        <v>-0.1202581158732557</v>
       </c>
       <c r="C91">
-        <v>-0.02027608580635828</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01746013521809826</v>
+      </c>
+      <c r="D91">
+        <v>0.007827495424497153</v>
+      </c>
+      <c r="E91">
+        <v>-0.1656548932718097</v>
+      </c>
+      <c r="F91">
+        <v>-0.04081113681685337</v>
+      </c>
+      <c r="G91">
+        <v>0.0902671128511589</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1749023359927654</v>
+        <v>-0.1772171211173231</v>
       </c>
       <c r="C92">
-        <v>-0.2651731658005522</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2752513972408962</v>
+      </c>
+      <c r="D92">
+        <v>0.03321765977041272</v>
+      </c>
+      <c r="E92">
+        <v>0.2052011731481826</v>
+      </c>
+      <c r="F92">
+        <v>-0.07467506355172379</v>
+      </c>
+      <c r="G92">
+        <v>-0.07125785291095404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1792106268461992</v>
+        <v>-0.1869763833587028</v>
       </c>
       <c r="C93">
-        <v>-0.2246844545950445</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2285686020065155</v>
+      </c>
+      <c r="D93">
+        <v>0.01723473818422745</v>
+      </c>
+      <c r="E93">
+        <v>0.09904170485681292</v>
+      </c>
+      <c r="F93">
+        <v>-0.05298271857978953</v>
+      </c>
+      <c r="G93">
+        <v>-0.0655347391299702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1186892855614158</v>
+        <v>-0.1127077718185347</v>
       </c>
       <c r="C94">
-        <v>0.03627097974601221</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03681713851604029</v>
+      </c>
+      <c r="D94">
+        <v>-0.03602903000348407</v>
+      </c>
+      <c r="E94">
+        <v>-0.1161540119297708</v>
+      </c>
+      <c r="F94">
+        <v>-0.04775808370938627</v>
+      </c>
+      <c r="G94">
+        <v>0.0265090225035103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1179465986049724</v>
+        <v>-0.1182235236912665</v>
       </c>
       <c r="C95">
-        <v>0.1047999497340221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1139201816072028</v>
+      </c>
+      <c r="D95">
+        <v>-0.0002629533422598714</v>
+      </c>
+      <c r="E95">
+        <v>0.0453980726733923</v>
+      </c>
+      <c r="F95">
+        <v>-0.05666397461955881</v>
+      </c>
+      <c r="G95">
+        <v>-0.00409256375277161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1171412520509279</v>
+        <v>-0.1147258835516842</v>
       </c>
       <c r="C96">
-        <v>0.1279039005951645</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1314956084839312</v>
+      </c>
+      <c r="D96">
+        <v>0.01580377346464108</v>
+      </c>
+      <c r="E96">
+        <v>-0.03838364483157227</v>
+      </c>
+      <c r="F96">
+        <v>0.03631654797672561</v>
+      </c>
+      <c r="G96">
+        <v>-0.1319447080494939</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1974603503248234</v>
+        <v>-0.2004331258602351</v>
       </c>
       <c r="C97">
-        <v>0.01922075264128206</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01098669711234726</v>
+      </c>
+      <c r="D97">
+        <v>0.2015838650099145</v>
+      </c>
+      <c r="E97">
+        <v>-0.08505846096247988</v>
+      </c>
+      <c r="F97">
+        <v>0.5746031157649625</v>
+      </c>
+      <c r="G97">
+        <v>0.5946383204694919</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1983692294319411</v>
+        <v>-0.204583418795401</v>
       </c>
       <c r="C98">
-        <v>0.02615997454127117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02979630878516093</v>
+      </c>
+      <c r="D98">
+        <v>0.08232702180273539</v>
+      </c>
+      <c r="E98">
+        <v>-0.02452239855394273</v>
+      </c>
+      <c r="F98">
+        <v>0.1349846536754253</v>
+      </c>
+      <c r="G98">
+        <v>-0.08605763299634482</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05428883501074535</v>
+        <v>-0.05353753212053389</v>
       </c>
       <c r="C99">
-        <v>0.06084397441918939</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06101523364901714</v>
+      </c>
+      <c r="D99">
+        <v>-0.00382998584631029</v>
+      </c>
+      <c r="E99">
+        <v>0.03141795879945751</v>
+      </c>
+      <c r="F99">
+        <v>-0.005895763031734743</v>
+      </c>
+      <c r="G99">
+        <v>0.006702297639104676</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09901219129109685</v>
+        <v>-0.09429846594396804</v>
       </c>
       <c r="C100">
-        <v>0.3201885619696916</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.3021477201507791</v>
+      </c>
+      <c r="D100">
+        <v>0.2725099249035319</v>
+      </c>
+      <c r="E100">
+        <v>0.3758071485586599</v>
+      </c>
+      <c r="F100">
+        <v>0.5007841167631776</v>
+      </c>
+      <c r="G100">
+        <v>-0.2357956587783381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02460149087391988</v>
+        <v>-0.02662265787976465</v>
       </c>
       <c r="C101">
-        <v>0.05454624656679436</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05239166597880719</v>
+      </c>
+      <c r="D101">
+        <v>-0.004514740543806807</v>
+      </c>
+      <c r="E101">
+        <v>0.05080018671585092</v>
+      </c>
+      <c r="F101">
+        <v>-0.04242882281843818</v>
+      </c>
+      <c r="G101">
+        <v>0.004104701312713303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
